--- a/biology/Médecine/Affection_provoquée_par_les_résines_époxydiques/Affection_provoquée_par_les_résines_époxydiques.xlsx
+++ b/biology/Médecine/Affection_provoquée_par_les_résines_époxydiques/Affection_provoquée_par_les_résines_époxydiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Affection_provoqu%C3%A9e_par_les_r%C3%A9sines_%C3%A9poxydiques</t>
+          <t>Affection_provoquée_par_les_résines_époxydiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une affection provoquée par les résines époxydiques (ou époxyde) soit reconnue comme maladie professionnelle.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage juridique que médical. Pour la description clinique de la maladie se reporter à l'article suivant :
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Affection_provoqu%C3%A9e_par_les_r%C3%A9sines_%C3%A9poxydiques</t>
+          <t>Affection_provoquée_par_les_résines_époxydiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Régime général
-Données professionnelles
-Données médicales</t>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
